--- a/measures/5 hand-scoring of awareness criteria/to labs/coding-Vadillo/data_awareness_for_hand_scoring_Vadillo_coder1.xlsx
+++ b/measures/5 hand-scoring of awareness criteria/to labs/coding-Vadillo/data_awareness_for_hand_scoring_Vadillo_coder1.xlsx
@@ -1816,12 +1816,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1836,8 +1842,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2120,11 +2128,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="54.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2133,7 +2144,7 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -2159,7 +2170,7 @@
       <c r="B2" t="s">
         <v>204</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>205</v>
       </c>
       <c r="D2" t="s">
@@ -2185,7 +2196,7 @@
       <c r="B3" t="s">
         <v>203</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>206</v>
       </c>
       <c r="D3" t="s">
@@ -2211,7 +2222,7 @@
       <c r="B4" t="s">
         <v>204</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>207</v>
       </c>
       <c r="D4" t="s">
@@ -2237,7 +2248,7 @@
       <c r="B5" t="s">
         <v>204</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>208</v>
       </c>
       <c r="D5" t="s">
@@ -2263,7 +2274,7 @@
       <c r="B6" t="s">
         <v>203</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>209</v>
       </c>
       <c r="D6" t="s">
@@ -2289,7 +2300,7 @@
       <c r="B7" t="s">
         <v>204</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>210</v>
       </c>
       <c r="D7" t="s">
@@ -2315,7 +2326,7 @@
       <c r="B8" t="s">
         <v>203</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>211</v>
       </c>
       <c r="D8" t="s">
@@ -2341,7 +2352,7 @@
       <c r="B9" t="s">
         <v>204</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D9" t="s">
@@ -2367,7 +2378,7 @@
       <c r="B10" t="s">
         <v>204</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>213</v>
       </c>
       <c r="D10" t="s">
@@ -2393,7 +2404,7 @@
       <c r="B11" t="s">
         <v>204</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>214</v>
       </c>
       <c r="D11" t="s">
@@ -2419,7 +2430,7 @@
       <c r="B12" t="s">
         <v>203</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>215</v>
       </c>
       <c r="D12" t="s">
@@ -2445,7 +2456,7 @@
       <c r="B13" t="s">
         <v>204</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>216</v>
       </c>
       <c r="D13" t="s">
@@ -2471,10 +2482,10 @@
       <c r="B14" t="s">
         <v>204</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>410</v>
       </c>
       <c r="E14" t="s">
@@ -2497,7 +2508,7 @@
       <c r="B15" t="s">
         <v>204</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>218</v>
       </c>
       <c r="D15" t="s">
